--- a/Financials/Yearly/RY_YR_FIN.xlsx
+++ b/Financials/Yearly/RY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19037E71-CA79-4A00-ABD6-3D63E5D9D2F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RY" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>RY</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,86 +689,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E7" s="2">
         <v>43039</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42674</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42308</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>41943</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41578</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41213</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40847</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20668500</v>
+        <v>24574600</v>
       </c>
       <c r="E8" s="3">
-        <v>18784800</v>
+        <v>20022200</v>
       </c>
       <c r="F8" s="3">
-        <v>17461100</v>
+        <v>18197400</v>
       </c>
       <c r="G8" s="3">
-        <v>16915700</v>
+        <v>16915100</v>
       </c>
       <c r="H8" s="3">
-        <v>16246500</v>
+        <v>16386800</v>
       </c>
       <c r="I8" s="3">
-        <v>15955400</v>
+        <v>15738600</v>
       </c>
       <c r="J8" s="3">
+        <v>15456500</v>
+      </c>
+      <c r="K8" s="3">
         <v>15989200</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -758,9 +799,12 @@
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -785,9 +829,12 @@
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -799,8 +846,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -825,9 +873,12 @@
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,9 +903,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -879,36 +933,42 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-779800</v>
+        <v>-801500</v>
       </c>
       <c r="E15" s="3">
-        <v>-745200</v>
+        <v>-755400</v>
       </c>
       <c r="F15" s="3">
-        <v>-547000</v>
+        <v>-721900</v>
       </c>
       <c r="G15" s="3">
-        <v>-511600</v>
+        <v>-529900</v>
       </c>
       <c r="H15" s="3">
-        <v>-434800</v>
+        <v>-495600</v>
       </c>
       <c r="I15" s="3">
-        <v>-379500</v>
+        <v>-421200</v>
       </c>
       <c r="J15" s="3">
+        <v>-367600</v>
+      </c>
+      <c r="K15" s="3">
         <v>-369500</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8384500</v>
+        <v>12009300</v>
       </c>
       <c r="E17" s="3">
-        <v>7272800</v>
+        <v>8122300</v>
       </c>
       <c r="F17" s="3">
-        <v>6956300</v>
+        <v>7045400</v>
       </c>
       <c r="G17" s="3">
-        <v>6965500</v>
+        <v>6738800</v>
       </c>
       <c r="H17" s="3">
-        <v>7018500</v>
+        <v>6747800</v>
       </c>
       <c r="I17" s="3">
-        <v>7397300</v>
+        <v>6799100</v>
       </c>
       <c r="J17" s="3">
+        <v>7166000</v>
+      </c>
+      <c r="K17" s="3">
         <v>8134800</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12284000</v>
+        <v>12565200</v>
       </c>
       <c r="E18" s="3">
-        <v>11511900</v>
+        <v>11899900</v>
       </c>
       <c r="F18" s="3">
-        <v>10504800</v>
+        <v>11152000</v>
       </c>
       <c r="G18" s="3">
-        <v>9950100</v>
+        <v>10176300</v>
       </c>
       <c r="H18" s="3">
-        <v>9228000</v>
+        <v>9639000</v>
       </c>
       <c r="I18" s="3">
-        <v>8558100</v>
+        <v>8939500</v>
       </c>
       <c r="J18" s="3">
+        <v>8290500</v>
+      </c>
+      <c r="K18" s="3">
         <v>7854400</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,62 +1051,69 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1012500</v>
+        <v>-836500</v>
       </c>
       <c r="E20" s="3">
-        <v>-1295200</v>
+        <v>-980900</v>
       </c>
       <c r="F20" s="3">
-        <v>-807400</v>
+        <v>-1254700</v>
       </c>
       <c r="G20" s="3">
-        <v>-954100</v>
+        <v>-782200</v>
       </c>
       <c r="H20" s="3">
-        <v>-1202300</v>
+        <v>-924300</v>
       </c>
       <c r="I20" s="3">
-        <v>-1193800</v>
+        <v>-1164700</v>
       </c>
       <c r="J20" s="3">
+        <v>-1156500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-955700</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12519600</v>
+        <v>12960800</v>
       </c>
       <c r="E21" s="3">
-        <v>11410000</v>
+        <v>12125000</v>
       </c>
       <c r="F21" s="3">
-        <v>10659200</v>
+        <v>11050200</v>
       </c>
       <c r="G21" s="3">
-        <v>9901400</v>
+        <v>10323400</v>
       </c>
       <c r="H21" s="3">
-        <v>8813800</v>
+        <v>9589500</v>
       </c>
       <c r="I21" s="3">
-        <v>8631700</v>
+        <v>8536200</v>
       </c>
       <c r="J21" s="3">
+        <v>8358600</v>
+      </c>
+      <c r="K21" s="3">
         <v>7638200</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1064,63 +1138,72 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11271500</v>
+        <v>11728700</v>
       </c>
       <c r="E23" s="3">
-        <v>10216700</v>
+        <v>10919000</v>
       </c>
       <c r="F23" s="3">
-        <v>9697400</v>
+        <v>9897200</v>
       </c>
       <c r="G23" s="3">
-        <v>8996000</v>
+        <v>9394200</v>
       </c>
       <c r="H23" s="3">
-        <v>8025700</v>
+        <v>8714700</v>
       </c>
       <c r="I23" s="3">
-        <v>7364300</v>
+        <v>7774800</v>
       </c>
       <c r="J23" s="3">
+        <v>7134000</v>
+      </c>
+      <c r="K23" s="3">
         <v>6898700</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2460600</v>
+        <v>2609900</v>
       </c>
       <c r="E24" s="3">
-        <v>2182500</v>
+        <v>2383700</v>
       </c>
       <c r="F24" s="3">
-        <v>1995100</v>
+        <v>2114300</v>
       </c>
       <c r="G24" s="3">
-        <v>2078800</v>
+        <v>1932700</v>
       </c>
       <c r="H24" s="3">
-        <v>1617100</v>
+        <v>2013800</v>
       </c>
       <c r="I24" s="3">
-        <v>1558000</v>
+        <v>1566600</v>
       </c>
       <c r="J24" s="3">
+        <v>1509300</v>
+      </c>
+      <c r="K24" s="3">
         <v>1544100</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>8810800</v>
+        <v>9118800</v>
       </c>
       <c r="E26" s="3">
-        <v>8034100</v>
+        <v>8535300</v>
       </c>
       <c r="F26" s="3">
-        <v>7702300</v>
+        <v>7782900</v>
       </c>
       <c r="G26" s="3">
-        <v>6917100</v>
+        <v>7461400</v>
       </c>
       <c r="H26" s="3">
-        <v>6408600</v>
+        <v>6700900</v>
       </c>
       <c r="I26" s="3">
-        <v>5806300</v>
+        <v>6208200</v>
       </c>
       <c r="J26" s="3">
+        <v>5624700</v>
+      </c>
+      <c r="K26" s="3">
         <v>5354600</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8548900</v>
+        <v>8883600</v>
       </c>
       <c r="E27" s="3">
-        <v>7767600</v>
+        <v>8281600</v>
       </c>
       <c r="F27" s="3">
-        <v>7478000</v>
+        <v>7524700</v>
       </c>
       <c r="G27" s="3">
-        <v>6681300</v>
+        <v>7244100</v>
       </c>
       <c r="H27" s="3">
-        <v>6138900</v>
+        <v>6472400</v>
       </c>
       <c r="I27" s="3">
-        <v>5533600</v>
+        <v>5947000</v>
       </c>
       <c r="J27" s="3">
+        <v>5360500</v>
+      </c>
+      <c r="K27" s="3">
         <v>4954300</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,14 +1318,17 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>132500</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>5</v>
@@ -1241,21 +1336,24 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>-39200</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>-38000</v>
+      </c>
+      <c r="K29" s="3">
         <v>-404100</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1012500</v>
+        <v>836500</v>
       </c>
       <c r="E32" s="3">
-        <v>1295200</v>
+        <v>980900</v>
       </c>
       <c r="F32" s="3">
-        <v>807400</v>
+        <v>1254700</v>
       </c>
       <c r="G32" s="3">
-        <v>954100</v>
+        <v>782200</v>
       </c>
       <c r="H32" s="3">
-        <v>1202300</v>
+        <v>924300</v>
       </c>
       <c r="I32" s="3">
-        <v>1193800</v>
+        <v>1164700</v>
       </c>
       <c r="J32" s="3">
+        <v>1156500</v>
+      </c>
+      <c r="K32" s="3">
         <v>955700</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>8548900</v>
+        <v>9016100</v>
       </c>
       <c r="E33" s="3">
-        <v>7767600</v>
+        <v>8281600</v>
       </c>
       <c r="F33" s="3">
-        <v>7478000</v>
+        <v>7524700</v>
       </c>
       <c r="G33" s="3">
-        <v>6681300</v>
+        <v>7244100</v>
       </c>
       <c r="H33" s="3">
-        <v>6138900</v>
+        <v>6472400</v>
       </c>
       <c r="I33" s="3">
-        <v>5494400</v>
+        <v>5947000</v>
       </c>
       <c r="J33" s="3">
+        <v>5322600</v>
+      </c>
+      <c r="K33" s="3">
         <v>4550200</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>8548900</v>
+        <v>9016100</v>
       </c>
       <c r="E35" s="3">
-        <v>7767600</v>
+        <v>8281600</v>
       </c>
       <c r="F35" s="3">
-        <v>7478000</v>
+        <v>7524700</v>
       </c>
       <c r="G35" s="3">
-        <v>6681300</v>
+        <v>7244100</v>
       </c>
       <c r="H35" s="3">
-        <v>6138900</v>
+        <v>6472400</v>
       </c>
       <c r="I35" s="3">
-        <v>5494400</v>
+        <v>5947000</v>
       </c>
       <c r="J35" s="3">
+        <v>5322600</v>
+      </c>
+      <c r="K35" s="3">
         <v>4550200</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E38" s="2">
         <v>43039</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42674</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42308</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>41943</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41578</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41213</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40847</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,62 +1594,69 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>21823100</v>
+        <v>22481800</v>
       </c>
       <c r="E41" s="3">
-        <v>11468900</v>
+        <v>21140800</v>
       </c>
       <c r="F41" s="3">
-        <v>9566000</v>
+        <v>11110300</v>
       </c>
       <c r="G41" s="3">
-        <v>13383300</v>
+        <v>9266900</v>
       </c>
       <c r="H41" s="3">
-        <v>11946000</v>
+        <v>12964900</v>
       </c>
       <c r="I41" s="3">
-        <v>9692800</v>
+        <v>11572500</v>
       </c>
       <c r="J41" s="3">
+        <v>9389700</v>
+      </c>
+      <c r="K41" s="3">
         <v>9547600</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>267853000</v>
+        <v>316373000</v>
       </c>
       <c r="E42" s="3">
-        <v>255895000</v>
+        <v>259478000</v>
       </c>
       <c r="F42" s="3">
-        <v>232804000</v>
+        <v>247894000</v>
       </c>
       <c r="G42" s="3">
-        <v>177754000</v>
+        <v>225525000</v>
       </c>
       <c r="H42" s="3">
-        <v>154705000</v>
+        <v>172196000</v>
       </c>
       <c r="I42" s="3">
-        <v>257041000</v>
+        <v>149868000</v>
       </c>
       <c r="J42" s="3">
+        <v>249004000</v>
+      </c>
+      <c r="K42" s="3">
         <v>168653000</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1554,9 +1681,12 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1581,9 +1711,12 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1608,9 +1741,12 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1635,90 +1771,102 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>530100</v>
+        <v>510500</v>
       </c>
       <c r="E47" s="3">
-        <v>473200</v>
+        <v>513500</v>
       </c>
       <c r="F47" s="3">
-        <v>276600</v>
+        <v>458400</v>
       </c>
       <c r="G47" s="3">
-        <v>226600</v>
+        <v>267900</v>
       </c>
       <c r="H47" s="3">
-        <v>189800</v>
+        <v>219500</v>
       </c>
       <c r="I47" s="3">
-        <v>96000</v>
+        <v>183800</v>
       </c>
       <c r="J47" s="3">
+        <v>93000</v>
+      </c>
+      <c r="K47" s="3">
         <v>109100</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2051200</v>
+        <v>2107600</v>
       </c>
       <c r="E48" s="3">
-        <v>2178700</v>
+        <v>1987000</v>
       </c>
       <c r="F48" s="3">
-        <v>2095700</v>
+        <v>2110600</v>
       </c>
       <c r="G48" s="3">
-        <v>2061900</v>
+        <v>2030200</v>
       </c>
       <c r="H48" s="3">
-        <v>4050100</v>
+        <v>1997500</v>
       </c>
       <c r="I48" s="3">
-        <v>2067300</v>
+        <v>3923500</v>
       </c>
       <c r="J48" s="3">
+        <v>2002700</v>
+      </c>
+      <c r="K48" s="3">
         <v>3256500</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11895300</v>
+        <v>11776400</v>
       </c>
       <c r="E49" s="3">
-        <v>12141100</v>
+        <v>11523300</v>
       </c>
       <c r="F49" s="3">
-        <v>9297900</v>
+        <v>11761500</v>
       </c>
       <c r="G49" s="3">
-        <v>8774700</v>
+        <v>9007200</v>
       </c>
       <c r="H49" s="3">
-        <v>12815600</v>
+        <v>8500400</v>
       </c>
       <c r="I49" s="3">
-        <v>9877100</v>
+        <v>12414900</v>
       </c>
       <c r="J49" s="3">
+        <v>9568300</v>
+      </c>
+      <c r="K49" s="3">
         <v>9095800</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1330600</v>
+        <v>1097700</v>
       </c>
       <c r="E52" s="3">
-        <v>2171800</v>
+        <v>1289000</v>
       </c>
       <c r="F52" s="3">
-        <v>1591800</v>
+        <v>2103900</v>
       </c>
       <c r="G52" s="3">
-        <v>1829900</v>
+        <v>1542000</v>
       </c>
       <c r="H52" s="3">
-        <v>2207100</v>
+        <v>1772700</v>
       </c>
       <c r="I52" s="3">
-        <v>2117200</v>
+        <v>2138100</v>
       </c>
       <c r="J52" s="3">
+        <v>2051000</v>
+      </c>
+      <c r="K52" s="3">
         <v>22552900</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>931750000</v>
+        <v>993322000</v>
       </c>
       <c r="E54" s="3">
-        <v>906710000</v>
+        <v>902617000</v>
       </c>
       <c r="F54" s="3">
-        <v>825239000</v>
+        <v>878360000</v>
       </c>
       <c r="G54" s="3">
-        <v>722559000</v>
+        <v>799436000</v>
       </c>
       <c r="H54" s="3">
-        <v>660482000</v>
+        <v>699967000</v>
       </c>
       <c r="I54" s="3">
-        <v>633867000</v>
+        <v>639831000</v>
       </c>
       <c r="J54" s="3">
+        <v>614048000</v>
+      </c>
+      <c r="K54" s="3">
         <v>609846000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,35 +2042,39 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3245800</v>
+        <v>4174300</v>
       </c>
       <c r="E57" s="3">
-        <v>3157400</v>
+        <v>3144300</v>
       </c>
       <c r="F57" s="3">
-        <v>3057600</v>
+        <v>3058700</v>
       </c>
       <c r="G57" s="3">
-        <v>3417900</v>
+        <v>2962000</v>
       </c>
       <c r="H57" s="3">
-        <v>3639900</v>
+        <v>3311000</v>
       </c>
       <c r="I57" s="3">
-        <v>6118200</v>
+        <v>3526100</v>
       </c>
       <c r="J57" s="3">
+        <v>5926900</v>
+      </c>
+      <c r="K57" s="3">
         <v>5504400</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1931,36 +2099,42 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9763400</v>
+        <v>9562400</v>
       </c>
       <c r="E59" s="3">
-        <v>9308600</v>
+        <v>9458200</v>
       </c>
       <c r="F59" s="3">
-        <v>8269200</v>
+        <v>9017600</v>
       </c>
       <c r="G59" s="3">
-        <v>8564200</v>
+        <v>8010700</v>
       </c>
       <c r="H59" s="3">
-        <v>9198000</v>
+        <v>8296500</v>
       </c>
       <c r="I59" s="3">
-        <v>8337600</v>
+        <v>8910400</v>
       </c>
       <c r="J59" s="3">
+        <v>8076900</v>
+      </c>
+      <c r="K59" s="3">
         <v>13169000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1985,63 +2159,72 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7117700</v>
+        <v>6795400</v>
       </c>
       <c r="E61" s="3">
-        <v>7499500</v>
+        <v>6895100</v>
       </c>
       <c r="F61" s="3">
-        <v>5655700</v>
+        <v>7265000</v>
       </c>
       <c r="G61" s="3">
-        <v>6037500</v>
+        <v>5478900</v>
       </c>
       <c r="H61" s="3">
-        <v>5717900</v>
+        <v>5848700</v>
       </c>
       <c r="I61" s="3">
-        <v>6541500</v>
+        <v>5539200</v>
       </c>
       <c r="J61" s="3">
+        <v>6336900</v>
+      </c>
+      <c r="K61" s="3">
         <v>6721200</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>427900</v>
+        <v>439800</v>
       </c>
       <c r="E62" s="3">
-        <v>1132400</v>
+        <v>414500</v>
       </c>
       <c r="F62" s="3">
-        <v>2060400</v>
+        <v>1097000</v>
       </c>
       <c r="G62" s="3">
-        <v>2400000</v>
+        <v>1996000</v>
       </c>
       <c r="H62" s="3">
-        <v>1896000</v>
+        <v>2324900</v>
       </c>
       <c r="I62" s="3">
-        <v>315700</v>
+        <v>1836700</v>
       </c>
       <c r="J62" s="3">
+        <v>305900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1379700</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>875032000</v>
+        <v>933889000</v>
       </c>
       <c r="E66" s="3">
-        <v>852152000</v>
+        <v>847673000</v>
       </c>
       <c r="F66" s="3">
-        <v>777496000</v>
+        <v>825508000</v>
       </c>
       <c r="G66" s="3">
-        <v>682081000</v>
+        <v>753187000</v>
       </c>
       <c r="H66" s="3">
-        <v>623864000</v>
+        <v>660754000</v>
       </c>
       <c r="I66" s="3">
-        <v>599859000</v>
+        <v>604358000</v>
       </c>
       <c r="J66" s="3">
+        <v>581104000</v>
+      </c>
+      <c r="K66" s="3">
         <v>579346000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,36 +2413,42 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4926700</v>
+        <v>4695200</v>
       </c>
       <c r="E70" s="3">
-        <v>5157100</v>
+        <v>4772600</v>
       </c>
       <c r="F70" s="3">
-        <v>3916400</v>
+        <v>4995900</v>
       </c>
       <c r="G70" s="3">
-        <v>3130500</v>
+        <v>3794000</v>
       </c>
       <c r="H70" s="3">
-        <v>3534600</v>
+        <v>3032700</v>
       </c>
       <c r="I70" s="3">
-        <v>3698300</v>
+        <v>3424100</v>
       </c>
       <c r="J70" s="3">
+        <v>3582600</v>
+      </c>
+      <c r="K70" s="3">
         <v>3697500</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>34846100</v>
+        <v>38038100</v>
       </c>
       <c r="E72" s="3">
-        <v>31896100</v>
+        <v>33756600</v>
       </c>
       <c r="F72" s="3">
-        <v>29047500</v>
+        <v>30898900</v>
       </c>
       <c r="G72" s="3">
-        <v>24287600</v>
+        <v>28139300</v>
       </c>
       <c r="H72" s="3">
-        <v>21078700</v>
+        <v>23528200</v>
       </c>
       <c r="I72" s="3">
-        <v>18644900</v>
+        <v>20419600</v>
       </c>
       <c r="J72" s="3">
+        <v>18062000</v>
+      </c>
+      <c r="K72" s="3">
         <v>15657300</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>51791000</v>
+        <v>54738200</v>
       </c>
       <c r="E76" s="3">
-        <v>49400300</v>
+        <v>50171700</v>
       </c>
       <c r="F76" s="3">
-        <v>43826000</v>
+        <v>47855700</v>
       </c>
       <c r="G76" s="3">
-        <v>37347500</v>
+        <v>42455700</v>
       </c>
       <c r="H76" s="3">
-        <v>33083100</v>
+        <v>36179700</v>
       </c>
       <c r="I76" s="3">
-        <v>30308900</v>
+        <v>32048700</v>
       </c>
       <c r="J76" s="3">
+        <v>29361300</v>
+      </c>
+      <c r="K76" s="3">
         <v>26802800</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43404</v>
+      </c>
+      <c r="E80" s="2">
         <v>43039</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42674</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42308</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>41943</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41578</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41213</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40847</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>8548900</v>
+        <v>9016100</v>
       </c>
       <c r="E81" s="3">
-        <v>7767600</v>
+        <v>8281600</v>
       </c>
       <c r="F81" s="3">
-        <v>7478000</v>
+        <v>7524700</v>
       </c>
       <c r="G81" s="3">
-        <v>6681300</v>
+        <v>7244100</v>
       </c>
       <c r="H81" s="3">
-        <v>6138900</v>
+        <v>6472400</v>
       </c>
       <c r="I81" s="3">
-        <v>5494400</v>
+        <v>5947000</v>
       </c>
       <c r="J81" s="3">
+        <v>5322600</v>
+      </c>
+      <c r="K81" s="3">
         <v>4550200</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1242200</v>
+        <v>1229400</v>
       </c>
       <c r="E83" s="3">
-        <v>1187700</v>
+        <v>1203400</v>
       </c>
       <c r="F83" s="3">
-        <v>957200</v>
+        <v>1150500</v>
       </c>
       <c r="G83" s="3">
-        <v>901100</v>
+        <v>927300</v>
       </c>
       <c r="H83" s="3">
-        <v>784400</v>
+        <v>873000</v>
       </c>
       <c r="I83" s="3">
-        <v>1261400</v>
+        <v>759800</v>
       </c>
       <c r="J83" s="3">
+        <v>1222000</v>
+      </c>
+      <c r="K83" s="3">
         <v>736000</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>28981500</v>
+        <v>13004300</v>
       </c>
       <c r="E89" s="3">
-        <v>20631600</v>
+        <v>28075300</v>
       </c>
       <c r="F89" s="3">
-        <v>18552000</v>
+        <v>19986500</v>
       </c>
       <c r="G89" s="3">
-        <v>11657100</v>
+        <v>17971900</v>
       </c>
       <c r="H89" s="3">
-        <v>5442900</v>
+        <v>11292600</v>
       </c>
       <c r="I89" s="3">
-        <v>-1265300</v>
+        <v>5272700</v>
       </c>
       <c r="J89" s="3">
+        <v>-1225700</v>
+      </c>
+      <c r="K89" s="3">
         <v>3440900</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1047900</v>
+        <v>-1473500</v>
       </c>
       <c r="E91" s="3">
-        <v>-965700</v>
+        <v>-1015100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1027100</v>
+        <v>-935500</v>
       </c>
       <c r="G91" s="3">
-        <v>-942600</v>
+        <v>-995000</v>
       </c>
       <c r="H91" s="3">
-        <v>-716000</v>
+        <v>-913100</v>
       </c>
       <c r="I91" s="3">
-        <v>-1014100</v>
+        <v>-693600</v>
       </c>
       <c r="J91" s="3">
+        <v>-982400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2143400</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-11875300</v>
+        <v>-5967100</v>
       </c>
       <c r="E94" s="3">
-        <v>-16460100</v>
+        <v>-11504000</v>
       </c>
       <c r="F94" s="3">
-        <v>-19315600</v>
+        <v>-15945400</v>
       </c>
       <c r="G94" s="3">
-        <v>-6312500</v>
+        <v>-18711700</v>
       </c>
       <c r="H94" s="3">
-        <v>299600</v>
+        <v>-6115200</v>
       </c>
       <c r="I94" s="3">
-        <v>2496700</v>
+        <v>290200</v>
       </c>
       <c r="J94" s="3">
+        <v>2418700</v>
+      </c>
+      <c r="K94" s="3">
         <v>3996300</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4078500</v>
+        <v>-4197300</v>
       </c>
       <c r="E96" s="3">
-        <v>-3838800</v>
+        <v>-3951000</v>
       </c>
       <c r="F96" s="3">
-        <v>-3506200</v>
+        <v>-3718800</v>
       </c>
       <c r="G96" s="3">
-        <v>-3235000</v>
+        <v>-3396600</v>
       </c>
       <c r="H96" s="3">
-        <v>-2927000</v>
+        <v>-3133900</v>
       </c>
       <c r="I96" s="3">
-        <v>-2513600</v>
+        <v>-2835400</v>
       </c>
       <c r="J96" s="3">
+        <v>-2435100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-4671600</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3210,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-6646000</v>
+        <v>-5745300</v>
       </c>
       <c r="E100" s="3">
-        <v>-2407600</v>
+        <v>-6438200</v>
       </c>
       <c r="F100" s="3">
-        <v>-3403300</v>
+        <v>-2332400</v>
       </c>
       <c r="G100" s="3">
-        <v>-4059300</v>
+        <v>-3296900</v>
       </c>
       <c r="H100" s="3">
-        <v>-3417900</v>
+        <v>-3932400</v>
       </c>
       <c r="I100" s="3">
-        <v>-3226600</v>
+        <v>-3311000</v>
       </c>
       <c r="J100" s="3">
+        <v>-3125700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2420700</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-106000</v>
+        <v>49100</v>
       </c>
       <c r="E101" s="3">
-        <v>139000</v>
+        <v>-102700</v>
       </c>
       <c r="F101" s="3">
-        <v>349500</v>
+        <v>134700</v>
       </c>
       <c r="G101" s="3">
-        <v>152100</v>
+        <v>338600</v>
       </c>
       <c r="H101" s="3">
-        <v>73800</v>
+        <v>147400</v>
       </c>
       <c r="I101" s="3">
-        <v>800</v>
+        <v>71400</v>
       </c>
       <c r="J101" s="3">
+        <v>700</v>
+      </c>
+      <c r="K101" s="3">
         <v>58400</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10354200</v>
+        <v>1341100</v>
       </c>
       <c r="E102" s="3">
-        <v>1902900</v>
+        <v>10030500</v>
       </c>
       <c r="F102" s="3">
-        <v>-3817300</v>
+        <v>1843400</v>
       </c>
       <c r="G102" s="3">
-        <v>1437400</v>
+        <v>-3698000</v>
       </c>
       <c r="H102" s="3">
-        <v>2398400</v>
+        <v>1392400</v>
       </c>
       <c r="I102" s="3">
-        <v>-1994300</v>
+        <v>2323400</v>
       </c>
       <c r="J102" s="3">
+        <v>-1932000</v>
+      </c>
+      <c r="K102" s="3">
         <v>5074900</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/RY_YR_FIN.xlsx
+++ b/Financials/Yearly/RY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19037E71-CA79-4A00-ABD6-3D63E5D9D2F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="RY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>RY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,92 +654,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43769</v>
+      </c>
+      <c r="E7" s="2">
         <v>43404</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43039</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42674</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42308</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41943</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41578</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41213</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40847</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>24574600</v>
+        <v>31115100</v>
       </c>
       <c r="E8" s="3">
-        <v>20022200</v>
+        <v>24857900</v>
       </c>
       <c r="F8" s="3">
-        <v>18197400</v>
+        <v>20253100</v>
       </c>
       <c r="G8" s="3">
-        <v>16915100</v>
+        <v>18407200</v>
       </c>
       <c r="H8" s="3">
-        <v>16386800</v>
+        <v>17110200</v>
       </c>
       <c r="I8" s="3">
-        <v>15738600</v>
+        <v>16575700</v>
       </c>
       <c r="J8" s="3">
+        <v>15920000</v>
+      </c>
+      <c r="K8" s="3">
         <v>15456500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15989200</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -802,9 +774,12 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -832,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -847,8 +825,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -936,39 +921,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-801500</v>
+        <v>-901100</v>
       </c>
       <c r="E15" s="3">
-        <v>-755400</v>
+        <v>-810800</v>
       </c>
       <c r="F15" s="3">
-        <v>-721900</v>
+        <v>-764100</v>
       </c>
       <c r="G15" s="3">
-        <v>-529900</v>
+        <v>-730200</v>
       </c>
       <c r="H15" s="3">
-        <v>-495600</v>
+        <v>-536000</v>
       </c>
       <c r="I15" s="3">
-        <v>-421200</v>
+        <v>-501400</v>
       </c>
       <c r="J15" s="3">
+        <v>-426100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-367600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-369500</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -978,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12009300</v>
+        <v>17651400</v>
       </c>
       <c r="E17" s="3">
-        <v>8122300</v>
+        <v>12327700</v>
       </c>
       <c r="F17" s="3">
-        <v>7045400</v>
+        <v>8216000</v>
       </c>
       <c r="G17" s="3">
-        <v>6738800</v>
+        <v>7126700</v>
       </c>
       <c r="H17" s="3">
-        <v>6747800</v>
+        <v>6816500</v>
       </c>
       <c r="I17" s="3">
-        <v>6799100</v>
+        <v>6825500</v>
       </c>
       <c r="J17" s="3">
+        <v>6877500</v>
+      </c>
+      <c r="K17" s="3">
         <v>7166000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8134800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>12565200</v>
+        <v>13463600</v>
       </c>
       <c r="E18" s="3">
-        <v>11899900</v>
+        <v>12530200</v>
       </c>
       <c r="F18" s="3">
-        <v>11152000</v>
+        <v>12037100</v>
       </c>
       <c r="G18" s="3">
-        <v>10176300</v>
+        <v>11280600</v>
       </c>
       <c r="H18" s="3">
-        <v>9639000</v>
+        <v>10293700</v>
       </c>
       <c r="I18" s="3">
-        <v>8939500</v>
+        <v>9750100</v>
       </c>
       <c r="J18" s="3">
+        <v>9042500</v>
+      </c>
+      <c r="K18" s="3">
         <v>8290500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7854400</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,68 +1050,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-836500</v>
+        <v>-1483700</v>
       </c>
       <c r="E20" s="3">
-        <v>-980900</v>
+        <v>-666200</v>
       </c>
       <c r="F20" s="3">
-        <v>-1254700</v>
+        <v>-992200</v>
       </c>
       <c r="G20" s="3">
-        <v>-782200</v>
+        <v>-1269200</v>
       </c>
       <c r="H20" s="3">
-        <v>-924300</v>
+        <v>-791200</v>
       </c>
       <c r="I20" s="3">
-        <v>-1164700</v>
+        <v>-935000</v>
       </c>
       <c r="J20" s="3">
+        <v>-1178100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1156500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-955700</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>12960800</v>
+        <v>13436500</v>
       </c>
       <c r="E21" s="3">
-        <v>12125000</v>
+        <v>13108100</v>
       </c>
       <c r="F21" s="3">
-        <v>11050200</v>
+        <v>12262700</v>
       </c>
       <c r="G21" s="3">
-        <v>10323400</v>
+        <v>11175700</v>
       </c>
       <c r="H21" s="3">
-        <v>9589500</v>
+        <v>10440900</v>
       </c>
       <c r="I21" s="3">
-        <v>8536200</v>
+        <v>9698600</v>
       </c>
       <c r="J21" s="3">
+        <v>8633300</v>
+      </c>
+      <c r="K21" s="3">
         <v>8358600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7638200</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1141,69 +1146,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>11728700</v>
+        <v>11979900</v>
       </c>
       <c r="E23" s="3">
-        <v>10919000</v>
+        <v>11864000</v>
       </c>
       <c r="F23" s="3">
-        <v>9897200</v>
+        <v>11044900</v>
       </c>
       <c r="G23" s="3">
-        <v>9394200</v>
+        <v>10011400</v>
       </c>
       <c r="H23" s="3">
-        <v>8714700</v>
+        <v>9502500</v>
       </c>
       <c r="I23" s="3">
-        <v>7774800</v>
+        <v>8815200</v>
       </c>
       <c r="J23" s="3">
+        <v>7864400</v>
+      </c>
+      <c r="K23" s="3">
         <v>7134000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6898700</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2609900</v>
+        <v>2290700</v>
       </c>
       <c r="E24" s="3">
-        <v>2383700</v>
+        <v>2640000</v>
       </c>
       <c r="F24" s="3">
-        <v>2114300</v>
+        <v>2411200</v>
       </c>
       <c r="G24" s="3">
-        <v>1932700</v>
+        <v>2138700</v>
       </c>
       <c r="H24" s="3">
-        <v>2013800</v>
+        <v>1955000</v>
       </c>
       <c r="I24" s="3">
-        <v>1566600</v>
+        <v>2037000</v>
       </c>
       <c r="J24" s="3">
+        <v>1584600</v>
+      </c>
+      <c r="K24" s="3">
         <v>1509300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1544100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1231,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>9118800</v>
+        <v>9689200</v>
       </c>
       <c r="E26" s="3">
-        <v>8535300</v>
+        <v>9223900</v>
       </c>
       <c r="F26" s="3">
-        <v>7782900</v>
+        <v>8633700</v>
       </c>
       <c r="G26" s="3">
-        <v>7461400</v>
+        <v>7872700</v>
       </c>
       <c r="H26" s="3">
-        <v>6700900</v>
+        <v>7547500</v>
       </c>
       <c r="I26" s="3">
-        <v>6208200</v>
+        <v>6778100</v>
       </c>
       <c r="J26" s="3">
+        <v>6279800</v>
+      </c>
+      <c r="K26" s="3">
         <v>5624700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5354600</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>8883600</v>
+        <v>9478400</v>
       </c>
       <c r="E27" s="3">
-        <v>8281600</v>
+        <v>8986100</v>
       </c>
       <c r="F27" s="3">
-        <v>7524700</v>
+        <v>8377000</v>
       </c>
       <c r="G27" s="3">
-        <v>7244100</v>
+        <v>7611500</v>
       </c>
       <c r="H27" s="3">
-        <v>6472400</v>
+        <v>7327700</v>
       </c>
       <c r="I27" s="3">
-        <v>5947000</v>
+        <v>6547000</v>
       </c>
       <c r="J27" s="3">
+        <v>6015500</v>
+      </c>
+      <c r="K27" s="3">
         <v>5360500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4954300</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1321,17 +1344,20 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>132500</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>134000</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
@@ -1339,21 +1365,24 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-38000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-404100</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1381,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1411,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>836500</v>
+        <v>1483700</v>
       </c>
       <c r="E32" s="3">
-        <v>980900</v>
+        <v>666200</v>
       </c>
       <c r="F32" s="3">
-        <v>1254700</v>
+        <v>992200</v>
       </c>
       <c r="G32" s="3">
-        <v>782200</v>
+        <v>1269200</v>
       </c>
       <c r="H32" s="3">
-        <v>924300</v>
+        <v>791200</v>
       </c>
       <c r="I32" s="3">
-        <v>1164700</v>
+        <v>935000</v>
       </c>
       <c r="J32" s="3">
+        <v>1178100</v>
+      </c>
+      <c r="K32" s="3">
         <v>1156500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>955700</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>9016100</v>
+        <v>9478400</v>
       </c>
       <c r="E33" s="3">
-        <v>8281600</v>
+        <v>9120100</v>
       </c>
       <c r="F33" s="3">
-        <v>7524700</v>
+        <v>8377000</v>
       </c>
       <c r="G33" s="3">
-        <v>7244100</v>
+        <v>7611500</v>
       </c>
       <c r="H33" s="3">
-        <v>6472400</v>
+        <v>7327700</v>
       </c>
       <c r="I33" s="3">
-        <v>5947000</v>
+        <v>6547000</v>
       </c>
       <c r="J33" s="3">
+        <v>6015500</v>
+      </c>
+      <c r="K33" s="3">
         <v>5322600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4550200</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1501,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>9016100</v>
+        <v>9478400</v>
       </c>
       <c r="E35" s="3">
-        <v>8281600</v>
+        <v>9120100</v>
       </c>
       <c r="F35" s="3">
-        <v>7524700</v>
+        <v>8377000</v>
       </c>
       <c r="G35" s="3">
-        <v>7244100</v>
+        <v>7611500</v>
       </c>
       <c r="H35" s="3">
-        <v>6472400</v>
+        <v>7327700</v>
       </c>
       <c r="I35" s="3">
-        <v>5947000</v>
+        <v>6547000</v>
       </c>
       <c r="J35" s="3">
+        <v>6015500</v>
+      </c>
+      <c r="K35" s="3">
         <v>5322600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4550200</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43769</v>
+      </c>
+      <c r="E38" s="2">
         <v>43404</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43039</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42674</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42308</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41943</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41578</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41213</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40847</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1581,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1595,68 +1646,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>22481800</v>
+        <v>19805900</v>
       </c>
       <c r="E41" s="3">
-        <v>21140800</v>
+        <v>22741000</v>
       </c>
       <c r="F41" s="3">
-        <v>11110300</v>
+        <v>21384500</v>
       </c>
       <c r="G41" s="3">
-        <v>9266900</v>
+        <v>11238400</v>
       </c>
       <c r="H41" s="3">
-        <v>12964900</v>
+        <v>9373700</v>
       </c>
       <c r="I41" s="3">
-        <v>11572500</v>
+        <v>13114400</v>
       </c>
       <c r="J41" s="3">
+        <v>11705900</v>
+      </c>
+      <c r="K41" s="3">
         <v>9389700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9547600</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>316373000</v>
+        <v>352444000</v>
       </c>
       <c r="E42" s="3">
-        <v>259478000</v>
+        <v>320020000</v>
       </c>
       <c r="F42" s="3">
-        <v>247894000</v>
+        <v>262469000</v>
       </c>
       <c r="G42" s="3">
-        <v>225525000</v>
+        <v>250752000</v>
       </c>
       <c r="H42" s="3">
-        <v>172196000</v>
+        <v>228125000</v>
       </c>
       <c r="I42" s="3">
-        <v>149868000</v>
+        <v>174181000</v>
       </c>
       <c r="J42" s="3">
+        <v>151595000</v>
+      </c>
+      <c r="K42" s="3">
         <v>249004000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>168653000</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1684,9 +1742,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1714,9 +1775,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1744,9 +1808,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1774,99 +1841,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>510500</v>
+        <v>490800</v>
       </c>
       <c r="E47" s="3">
-        <v>513500</v>
+        <v>516400</v>
       </c>
       <c r="F47" s="3">
-        <v>458400</v>
+        <v>519400</v>
       </c>
       <c r="G47" s="3">
-        <v>267900</v>
+        <v>463700</v>
       </c>
       <c r="H47" s="3">
-        <v>219500</v>
+        <v>271000</v>
       </c>
       <c r="I47" s="3">
-        <v>183800</v>
+        <v>222100</v>
       </c>
       <c r="J47" s="3">
+        <v>185900</v>
+      </c>
+      <c r="K47" s="3">
         <v>93000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>109100</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2107600</v>
+        <v>2402200</v>
       </c>
       <c r="E48" s="3">
-        <v>1987000</v>
+        <v>2131900</v>
       </c>
       <c r="F48" s="3">
-        <v>2110600</v>
+        <v>2009900</v>
       </c>
       <c r="G48" s="3">
-        <v>2030200</v>
+        <v>2134900</v>
       </c>
       <c r="H48" s="3">
-        <v>1997500</v>
+        <v>2053600</v>
       </c>
       <c r="I48" s="3">
-        <v>3923500</v>
+        <v>2020500</v>
       </c>
       <c r="J48" s="3">
+        <v>3968700</v>
+      </c>
+      <c r="K48" s="3">
         <v>2002700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3256500</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11776400</v>
+        <v>11976900</v>
       </c>
       <c r="E49" s="3">
-        <v>11523300</v>
+        <v>11912100</v>
       </c>
       <c r="F49" s="3">
-        <v>11761500</v>
+        <v>11656200</v>
       </c>
       <c r="G49" s="3">
-        <v>9007200</v>
+        <v>11897100</v>
       </c>
       <c r="H49" s="3">
-        <v>8500400</v>
+        <v>9111000</v>
       </c>
       <c r="I49" s="3">
-        <v>12414900</v>
+        <v>8598400</v>
       </c>
       <c r="J49" s="3">
+        <v>12558000</v>
+      </c>
+      <c r="K49" s="3">
         <v>9568300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9095800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1894,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1924,39 +2006,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1097700</v>
+        <v>1497300</v>
       </c>
       <c r="E52" s="3">
-        <v>1289000</v>
+        <v>1110400</v>
       </c>
       <c r="F52" s="3">
-        <v>2103900</v>
+        <v>1303800</v>
       </c>
       <c r="G52" s="3">
-        <v>1542000</v>
+        <v>2128100</v>
       </c>
       <c r="H52" s="3">
-        <v>1772700</v>
+        <v>1559800</v>
       </c>
       <c r="I52" s="3">
-        <v>2138100</v>
+        <v>1793100</v>
       </c>
       <c r="J52" s="3">
+        <v>2162800</v>
+      </c>
+      <c r="K52" s="3">
         <v>2051000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>22552900</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1984,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>993322000</v>
+        <v>1075690000</v>
       </c>
       <c r="E54" s="3">
-        <v>902617000</v>
+        <v>1004770000</v>
       </c>
       <c r="F54" s="3">
-        <v>878360000</v>
+        <v>913024000</v>
       </c>
       <c r="G54" s="3">
-        <v>799436000</v>
+        <v>888486000</v>
       </c>
       <c r="H54" s="3">
-        <v>699967000</v>
+        <v>808653000</v>
       </c>
       <c r="I54" s="3">
-        <v>639831000</v>
+        <v>708037000</v>
       </c>
       <c r="J54" s="3">
+        <v>647207000</v>
+      </c>
+      <c r="K54" s="3">
         <v>614048000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>609846000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2029,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2043,38 +2138,42 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4174300</v>
+        <v>3642800</v>
       </c>
       <c r="E57" s="3">
-        <v>3144300</v>
+        <v>4222400</v>
       </c>
       <c r="F57" s="3">
-        <v>3058700</v>
+        <v>3180500</v>
       </c>
       <c r="G57" s="3">
-        <v>2962000</v>
+        <v>3094000</v>
       </c>
       <c r="H57" s="3">
-        <v>3311000</v>
+        <v>2996100</v>
       </c>
       <c r="I57" s="3">
-        <v>3526100</v>
+        <v>3349200</v>
       </c>
       <c r="J57" s="3">
+        <v>3566700</v>
+      </c>
+      <c r="K57" s="3">
         <v>5926900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5504400</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2102,39 +2201,45 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9562400</v>
+        <v>11051700</v>
       </c>
       <c r="E59" s="3">
-        <v>9458200</v>
+        <v>9672600</v>
       </c>
       <c r="F59" s="3">
-        <v>9017600</v>
+        <v>9567200</v>
       </c>
       <c r="G59" s="3">
-        <v>8010700</v>
+        <v>9121600</v>
       </c>
       <c r="H59" s="3">
-        <v>8296500</v>
+        <v>8103000</v>
       </c>
       <c r="I59" s="3">
-        <v>8910400</v>
+        <v>8392100</v>
       </c>
       <c r="J59" s="3">
+        <v>9013200</v>
+      </c>
+      <c r="K59" s="3">
         <v>8076900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13169000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2162,69 +2267,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6795400</v>
+        <v>7388600</v>
       </c>
       <c r="E61" s="3">
-        <v>6895100</v>
+        <v>6873700</v>
       </c>
       <c r="F61" s="3">
-        <v>7265000</v>
+        <v>6974600</v>
       </c>
       <c r="G61" s="3">
-        <v>5478900</v>
+        <v>7348700</v>
       </c>
       <c r="H61" s="3">
-        <v>5848700</v>
+        <v>5542000</v>
       </c>
       <c r="I61" s="3">
-        <v>5539200</v>
+        <v>5916200</v>
       </c>
       <c r="J61" s="3">
+        <v>5603000</v>
+      </c>
+      <c r="K61" s="3">
         <v>6336900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6721200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>439800</v>
+        <v>2530900</v>
       </c>
       <c r="E62" s="3">
-        <v>414500</v>
+        <v>444900</v>
       </c>
       <c r="F62" s="3">
-        <v>1097000</v>
+        <v>419300</v>
       </c>
       <c r="G62" s="3">
-        <v>1996000</v>
+        <v>1109600</v>
       </c>
       <c r="H62" s="3">
-        <v>2324900</v>
+        <v>2019000</v>
       </c>
       <c r="I62" s="3">
-        <v>1836700</v>
+        <v>2351700</v>
       </c>
       <c r="J62" s="3">
+        <v>1857900</v>
+      </c>
+      <c r="K62" s="3">
         <v>305900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1379700</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2252,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2282,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2312,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>933889000</v>
+        <v>1012810000</v>
       </c>
       <c r="E66" s="3">
-        <v>847673000</v>
+        <v>944656000</v>
       </c>
       <c r="F66" s="3">
-        <v>825508000</v>
+        <v>857446000</v>
       </c>
       <c r="G66" s="3">
-        <v>753187000</v>
+        <v>835026000</v>
       </c>
       <c r="H66" s="3">
-        <v>660754000</v>
+        <v>761870000</v>
       </c>
       <c r="I66" s="3">
-        <v>604358000</v>
+        <v>668372000</v>
       </c>
       <c r="J66" s="3">
+        <v>611326000</v>
+      </c>
+      <c r="K66" s="3">
         <v>581104000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>579346000</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2357,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2386,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2416,39 +2546,45 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>4695200</v>
+        <v>4296200</v>
       </c>
       <c r="E70" s="3">
-        <v>4772600</v>
+        <v>4749400</v>
       </c>
       <c r="F70" s="3">
-        <v>4995900</v>
+        <v>4827600</v>
       </c>
       <c r="G70" s="3">
-        <v>3794000</v>
+        <v>5053500</v>
       </c>
       <c r="H70" s="3">
-        <v>3032700</v>
+        <v>3837700</v>
       </c>
       <c r="I70" s="3">
-        <v>3424100</v>
+        <v>3067600</v>
       </c>
       <c r="J70" s="3">
+        <v>3463600</v>
+      </c>
+      <c r="K70" s="3">
         <v>3582600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>3697500</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2476,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>38038100</v>
+        <v>42141900</v>
       </c>
       <c r="E72" s="3">
-        <v>33756600</v>
+        <v>38476600</v>
       </c>
       <c r="F72" s="3">
-        <v>30898900</v>
+        <v>34145800</v>
       </c>
       <c r="G72" s="3">
-        <v>28139300</v>
+        <v>31255100</v>
       </c>
       <c r="H72" s="3">
-        <v>23528200</v>
+        <v>28463700</v>
       </c>
       <c r="I72" s="3">
-        <v>20419600</v>
+        <v>23799500</v>
       </c>
       <c r="J72" s="3">
+        <v>20655100</v>
+      </c>
+      <c r="K72" s="3">
         <v>18062000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15657300</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2536,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2566,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2596,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>54738200</v>
+        <v>58579100</v>
       </c>
       <c r="E76" s="3">
-        <v>50171700</v>
+        <v>55369200</v>
       </c>
       <c r="F76" s="3">
-        <v>47855700</v>
+        <v>50750100</v>
       </c>
       <c r="G76" s="3">
-        <v>42455700</v>
+        <v>48407400</v>
       </c>
       <c r="H76" s="3">
-        <v>36179700</v>
+        <v>42945200</v>
       </c>
       <c r="I76" s="3">
-        <v>32048700</v>
+        <v>36596900</v>
       </c>
       <c r="J76" s="3">
+        <v>32418100</v>
+      </c>
+      <c r="K76" s="3">
         <v>29361300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26802800</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2656,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43769</v>
+      </c>
+      <c r="E80" s="2">
         <v>43404</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43039</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42674</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42308</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41943</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41578</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41213</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40847</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>9016100</v>
+        <v>9478400</v>
       </c>
       <c r="E81" s="3">
-        <v>8281600</v>
+        <v>9120100</v>
       </c>
       <c r="F81" s="3">
-        <v>7524700</v>
+        <v>8377000</v>
       </c>
       <c r="G81" s="3">
-        <v>7244100</v>
+        <v>7611500</v>
       </c>
       <c r="H81" s="3">
-        <v>6472400</v>
+        <v>7327700</v>
       </c>
       <c r="I81" s="3">
-        <v>5947000</v>
+        <v>6547000</v>
       </c>
       <c r="J81" s="3">
+        <v>6015500</v>
+      </c>
+      <c r="K81" s="3">
         <v>5322600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4550200</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2736,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1229400</v>
+        <v>1455900</v>
       </c>
       <c r="E83" s="3">
-        <v>1203400</v>
+        <v>1243600</v>
       </c>
       <c r="F83" s="3">
-        <v>1150500</v>
+        <v>1217300</v>
       </c>
       <c r="G83" s="3">
-        <v>927300</v>
+        <v>1163800</v>
       </c>
       <c r="H83" s="3">
-        <v>873000</v>
+        <v>938000</v>
       </c>
       <c r="I83" s="3">
-        <v>759800</v>
+        <v>883000</v>
       </c>
       <c r="J83" s="3">
+        <v>768600</v>
+      </c>
+      <c r="K83" s="3">
         <v>1222000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>736000</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2795,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2825,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2855,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2885,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2915,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>13004300</v>
+        <v>10738500</v>
       </c>
       <c r="E89" s="3">
-        <v>28075300</v>
+        <v>13154300</v>
       </c>
       <c r="F89" s="3">
-        <v>19986500</v>
+        <v>28399000</v>
       </c>
       <c r="G89" s="3">
-        <v>17971900</v>
+        <v>20216900</v>
       </c>
       <c r="H89" s="3">
-        <v>11292600</v>
+        <v>18179100</v>
       </c>
       <c r="I89" s="3">
-        <v>5272700</v>
+        <v>11422800</v>
       </c>
       <c r="J89" s="3">
+        <v>5333500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1225700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3440900</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2960,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1473500</v>
+        <v>-1702100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1015100</v>
+        <v>-1490500</v>
       </c>
       <c r="F91" s="3">
-        <v>-935500</v>
+        <v>-1026800</v>
       </c>
       <c r="G91" s="3">
-        <v>-995000</v>
+        <v>-946300</v>
       </c>
       <c r="H91" s="3">
-        <v>-913100</v>
+        <v>-1006500</v>
       </c>
       <c r="I91" s="3">
-        <v>-693600</v>
+        <v>-923700</v>
       </c>
       <c r="J91" s="3">
+        <v>-701600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-982400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2143400</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3019,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3049,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5967100</v>
+        <v>-8375500</v>
       </c>
       <c r="E94" s="3">
-        <v>-11504000</v>
+        <v>-6035900</v>
       </c>
       <c r="F94" s="3">
-        <v>-15945400</v>
+        <v>-11636600</v>
       </c>
       <c r="G94" s="3">
-        <v>-18711700</v>
+        <v>-16129300</v>
       </c>
       <c r="H94" s="3">
-        <v>-6115200</v>
+        <v>-18927400</v>
       </c>
       <c r="I94" s="3">
-        <v>290200</v>
+        <v>-6185700</v>
       </c>
       <c r="J94" s="3">
+        <v>293600</v>
+      </c>
+      <c r="K94" s="3">
         <v>2418700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>3996300</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3094,38 +3292,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4197300</v>
+        <v>-4535600</v>
       </c>
       <c r="E96" s="3">
-        <v>-3951000</v>
+        <v>-4245700</v>
       </c>
       <c r="F96" s="3">
-        <v>-3718800</v>
+        <v>-3996600</v>
       </c>
       <c r="G96" s="3">
-        <v>-3396600</v>
+        <v>-3761700</v>
       </c>
       <c r="H96" s="3">
-        <v>-3133900</v>
+        <v>-3435700</v>
       </c>
       <c r="I96" s="3">
-        <v>-2835400</v>
+        <v>-3170000</v>
       </c>
       <c r="J96" s="3">
+        <v>-2868100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2435100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-4671600</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3153,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3183,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3213,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5745300</v>
+        <v>-5613600</v>
       </c>
       <c r="E100" s="3">
-        <v>-6438200</v>
+        <v>-5811500</v>
       </c>
       <c r="F100" s="3">
-        <v>-2332400</v>
+        <v>-6512400</v>
       </c>
       <c r="G100" s="3">
-        <v>-3296900</v>
+        <v>-2359200</v>
       </c>
       <c r="H100" s="3">
-        <v>-3932400</v>
+        <v>-3334900</v>
       </c>
       <c r="I100" s="3">
-        <v>-3311000</v>
+        <v>-3977700</v>
       </c>
       <c r="J100" s="3">
+        <v>-3349200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3125700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2420700</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>49100</v>
+        <v>315400</v>
       </c>
       <c r="E101" s="3">
-        <v>-102700</v>
+        <v>49700</v>
       </c>
       <c r="F101" s="3">
-        <v>134700</v>
+        <v>-103900</v>
       </c>
       <c r="G101" s="3">
-        <v>338600</v>
+        <v>136300</v>
       </c>
       <c r="H101" s="3">
-        <v>147400</v>
+        <v>342500</v>
       </c>
       <c r="I101" s="3">
-        <v>71400</v>
+        <v>149100</v>
       </c>
       <c r="J101" s="3">
+        <v>72300</v>
+      </c>
+      <c r="K101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>58400</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1341100</v>
+        <v>-2935100</v>
       </c>
       <c r="E102" s="3">
-        <v>10030500</v>
+        <v>1356500</v>
       </c>
       <c r="F102" s="3">
-        <v>1843400</v>
+        <v>10146100</v>
       </c>
       <c r="G102" s="3">
-        <v>-3698000</v>
+        <v>1864700</v>
       </c>
       <c r="H102" s="3">
-        <v>1392400</v>
+        <v>-3740600</v>
       </c>
       <c r="I102" s="3">
-        <v>2323400</v>
+        <v>1408500</v>
       </c>
       <c r="J102" s="3">
+        <v>2350200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1932000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5074900</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
